--- a/2019-2月.xlsx
+++ b/2019-2月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24435" windowHeight="10440"/>
+    <workbookView windowWidth="19065" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>12月主要任务时间轴</t>
   </si>
@@ -52,16 +52,22 @@
     <t>TS视频</t>
   </si>
   <si>
+    <t>英文视频无法进行</t>
+  </si>
+  <si>
     <t>项目以及介绍(interview)</t>
+  </si>
+  <si>
+    <t>拖延</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>工作技能（21:00-22:00）</t>
+    <t>工作技能（21:30-22:30）</t>
   </si>
   <si>
-    <t>书籍学习（20:00-21:00）</t>
+    <t>书籍学习（20:30-21:30）</t>
   </si>
   <si>
     <t>说话的秘密</t>
@@ -70,7 +76,7 @@
     <t>如何在30s内说出重点</t>
   </si>
   <si>
-    <t>情感培养（22:00-22:30)</t>
+    <t>情感培养（20:10-20:30)</t>
   </si>
   <si>
     <t>小红书</t>
@@ -82,7 +88,7 @@
     <t>变美</t>
   </si>
   <si>
-    <t>养身健身（22:30-22:50）</t>
+    <t>养身健身（19:00-20:10）</t>
   </si>
   <si>
     <t>每日喝药</t>
@@ -103,7 +109,7 @@
     <t>洗衣服</t>
   </si>
   <si>
-    <t>每日三省（22:50-23:00）</t>
+    <t>每日三省（22:30-22:50）</t>
   </si>
   <si>
     <t>归纳总结</t>
@@ -117,13 +123,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="mmm"/>
-    <numFmt numFmtId="177" formatCode="d"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="d"/>
+    <numFmt numFmtId="177" formatCode="mmm"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -214,14 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -236,9 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,15 +244,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,8 +272,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +300,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,38 +326,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,13 +370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +430,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,85 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,54 +593,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,6 +725,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -728,15 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,21 +760,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,6 +789,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,137 +824,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,10 +1003,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,7 +1015,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,7 +1051,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,61 +1060,64 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="7" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="8" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="8" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="9" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="10" borderId="4" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1453,8 +1468,8 @@
   <sheetPr/>
   <dimension ref="A1:XFC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1"/>
@@ -1506,38 +1521,38 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="44" t="s">
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="45" t="s">
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="54" t="s">
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
     </row>
     <row r="5" ht="18.75" spans="1:33">
       <c r="A5" s="13"/>
@@ -1570,93 +1585,93 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="40" t="str">
+      <c r="J5" s="41" t="str">
         <f>LOWER(TEXT(J7,"m月"))</f>
         <v>1月</v>
       </c>
-      <c r="K5" s="40" t="str">
+      <c r="K5" s="41" t="str">
         <f>IF(TEXT(K7,"m月")=TEXT(J7,"m月"),"",LOWER(TEXT(K7,"m月")))</f>
         <v/>
       </c>
-      <c r="L5" s="40" t="str">
+      <c r="L5" s="41" t="str">
         <f t="shared" ref="L5:P5" si="1">IF(TEXT(L7,"m月")=TEXT(K7,"m月"),"",LOWER(TEXT(L7,"m月")))</f>
         <v/>
       </c>
-      <c r="M5" s="40" t="str">
+      <c r="M5" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N5" s="40" t="str">
+      <c r="N5" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O5" s="40" t="str">
+      <c r="O5" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P5" s="40" t="str">
+      <c r="P5" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q5" s="46" t="str">
+      <c r="Q5" s="47" t="str">
         <f>LOWER(TEXT(Q7,"m月"))</f>
         <v>1月</v>
       </c>
-      <c r="R5" s="46" t="str">
+      <c r="R5" s="47" t="str">
         <f>IF(TEXT(R7,"m月")=TEXT(Q7,"m月"),"",LOWER(TEXT(R7,"m月")))</f>
         <v/>
       </c>
-      <c r="S5" s="46" t="str">
+      <c r="S5" s="47" t="str">
         <f t="shared" ref="S5:W5" si="2">IF(TEXT(S7,"m月")=TEXT(R7,"m月"),"",LOWER(TEXT(S7,"m月")))</f>
         <v/>
       </c>
-      <c r="T5" s="46" t="str">
+      <c r="T5" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="U5" s="46" t="str">
+      <c r="U5" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="V5" s="46" t="str">
+      <c r="V5" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W5" s="46" t="str">
+      <c r="W5" s="47" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="X5" s="47" t="str">
+      <c r="X5" s="48" t="str">
         <f>LOWER(TEXT(X7,"m月"))</f>
         <v>1月</v>
       </c>
-      <c r="Y5" s="47" t="str">
+      <c r="Y5" s="48" t="str">
         <f>IF(TEXT(Y7,"m月")=TEXT(X7,"m月"),"",LOWER(TEXT(Y7,"m月")))</f>
         <v/>
       </c>
-      <c r="Z5" s="47" t="str">
+      <c r="Z5" s="48" t="str">
         <f t="shared" ref="Z5:AD5" si="3">IF(TEXT(Z7,"m月")=TEXT(Y7,"m月"),"",LOWER(TEXT(Z7,"m月")))</f>
         <v/>
       </c>
-      <c r="AA5" s="47" t="str">
+      <c r="AA5" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AB5" s="47" t="str">
+      <c r="AB5" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC5" s="47" t="str">
+      <c r="AC5" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AD5" s="47" t="str">
+      <c r="AD5" s="48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
     </row>
     <row r="6" ht="16.5" spans="1:33">
       <c r="A6" s="13"/>
@@ -1689,93 +1704,93 @@
         <f t="shared" si="4"/>
         <v>二</v>
       </c>
-      <c r="J6" s="41" t="str">
+      <c r="J6" s="42" t="str">
         <f t="shared" si="4"/>
         <v>三</v>
       </c>
-      <c r="K6" s="41" t="str">
+      <c r="K6" s="42" t="str">
         <f t="shared" si="4"/>
         <v>四</v>
       </c>
-      <c r="L6" s="41" t="str">
+      <c r="L6" s="42" t="str">
         <f t="shared" si="4"/>
         <v>五</v>
       </c>
-      <c r="M6" s="41" t="str">
+      <c r="M6" s="42" t="str">
         <f t="shared" si="4"/>
         <v>六</v>
       </c>
-      <c r="N6" s="41" t="str">
+      <c r="N6" s="42" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="O6" s="41" t="str">
+      <c r="O6" s="42" t="str">
         <f t="shared" si="4"/>
         <v>一</v>
       </c>
-      <c r="P6" s="41" t="str">
+      <c r="P6" s="42" t="str">
         <f t="shared" si="4"/>
         <v>二</v>
       </c>
-      <c r="Q6" s="48" t="str">
+      <c r="Q6" s="49" t="str">
         <f t="shared" si="4"/>
         <v>三</v>
       </c>
-      <c r="R6" s="48" t="str">
+      <c r="R6" s="49" t="str">
         <f t="shared" si="4"/>
         <v>四</v>
       </c>
-      <c r="S6" s="48" t="str">
+      <c r="S6" s="49" t="str">
         <f t="shared" si="4"/>
         <v>五</v>
       </c>
-      <c r="T6" s="48" t="str">
+      <c r="T6" s="49" t="str">
         <f t="shared" si="4"/>
         <v>六</v>
       </c>
-      <c r="U6" s="48" t="str">
+      <c r="U6" s="49" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="V6" s="48" t="str">
+      <c r="V6" s="49" t="str">
         <f t="shared" si="4"/>
         <v>一</v>
       </c>
-      <c r="W6" s="48" t="str">
+      <c r="W6" s="49" t="str">
         <f t="shared" si="4"/>
         <v>一</v>
       </c>
-      <c r="X6" s="49" t="str">
+      <c r="X6" s="50" t="str">
         <f t="shared" si="4"/>
         <v>二</v>
       </c>
-      <c r="Y6" s="49" t="str">
+      <c r="Y6" s="50" t="str">
         <f t="shared" si="4"/>
         <v>三</v>
       </c>
-      <c r="Z6" s="49" t="str">
+      <c r="Z6" s="50" t="str">
         <f t="shared" si="4"/>
         <v>四</v>
       </c>
-      <c r="AA6" s="49" t="str">
+      <c r="AA6" s="50" t="str">
         <f t="shared" si="4"/>
         <v>五</v>
       </c>
-      <c r="AB6" s="49" t="str">
+      <c r="AB6" s="50" t="str">
         <f t="shared" si="4"/>
         <v>六</v>
       </c>
-      <c r="AC6" s="49" t="str">
+      <c r="AC6" s="50" t="str">
         <f t="shared" si="4"/>
         <v>日</v>
       </c>
-      <c r="AD6" s="49" t="str">
+      <c r="AD6" s="50" t="str">
         <f t="shared" si="4"/>
         <v>一</v>
       </c>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
     </row>
     <row r="7" ht="17.25" spans="1:33">
       <c r="A7" s="18"/>
@@ -1808,93 +1823,93 @@
         <f t="shared" si="5"/>
         <v>43473</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="43">
         <f t="shared" si="5"/>
         <v>43474</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="43">
         <f t="shared" si="5"/>
         <v>43475</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="43">
         <f t="shared" si="5"/>
         <v>43476</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="43">
         <f t="shared" si="5"/>
         <v>43477</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="43">
         <f t="shared" si="5"/>
         <v>43478</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="43">
         <f t="shared" si="5"/>
         <v>43479</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="43">
         <f t="shared" si="5"/>
         <v>43480</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="51">
         <f t="shared" si="5"/>
         <v>43481</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="51">
         <f t="shared" si="5"/>
         <v>43482</v>
       </c>
-      <c r="S7" s="50">
+      <c r="S7" s="51">
         <f t="shared" si="5"/>
         <v>43483</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7" s="51">
         <f t="shared" si="5"/>
         <v>43484</v>
       </c>
-      <c r="U7" s="50">
+      <c r="U7" s="51">
         <f t="shared" si="5"/>
         <v>43485</v>
       </c>
-      <c r="V7" s="50">
+      <c r="V7" s="51">
         <f t="shared" si="5"/>
         <v>43486</v>
       </c>
-      <c r="W7" s="50">
+      <c r="W7" s="51">
         <f>V7+W1</f>
         <v>43486</v>
       </c>
-      <c r="X7" s="51">
+      <c r="X7" s="52">
         <f t="shared" si="5"/>
         <v>43487</v>
       </c>
-      <c r="Y7" s="51">
+      <c r="Y7" s="52">
         <f t="shared" si="5"/>
         <v>43488</v>
       </c>
-      <c r="Z7" s="51">
+      <c r="Z7" s="52">
         <f t="shared" si="5"/>
         <v>43489</v>
       </c>
-      <c r="AA7" s="51">
+      <c r="AA7" s="52">
         <f t="shared" si="5"/>
         <v>43490</v>
       </c>
-      <c r="AB7" s="51">
+      <c r="AB7" s="52">
         <f t="shared" si="5"/>
         <v>43491</v>
       </c>
-      <c r="AC7" s="51">
+      <c r="AC7" s="52">
         <f t="shared" si="5"/>
         <v>43492</v>
       </c>
-      <c r="AD7" s="51">
+      <c r="AD7" s="52">
         <f t="shared" si="5"/>
         <v>43493</v>
       </c>
       <c r="AE7" s="19"/>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="56"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
     </row>
     <row r="8" ht="16.5" spans="1:31">
       <c r="A8" s="21" t="s">
@@ -1931,7 +1946,7 @@
       <c r="AB8" s="24"/>
       <c r="AC8" s="23"/>
       <c r="AD8" s="24"/>
-      <c r="AE8" s="57"/>
+      <c r="AE8" s="58"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:31">
       <c r="A9" s="25" t="s">
@@ -1968,7 +1983,7 @@
       <c r="AB9" s="24"/>
       <c r="AC9" s="23"/>
       <c r="AD9" s="24"/>
-      <c r="AE9" s="57"/>
+      <c r="AE9" s="58"/>
     </row>
     <row r="10" ht="14.1" customHeight="1" spans="1:31">
       <c r="A10" s="31"/>
@@ -2003,7 +2018,7 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="23"/>
       <c r="AD10" s="24"/>
-      <c r="AE10" s="57"/>
+      <c r="AE10" s="58"/>
     </row>
     <row r="11" ht="14.1" customHeight="1" spans="1:31">
       <c r="A11" s="31"/>
@@ -2012,7 +2027,9 @@
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>12</v>
+      </c>
       <c r="F11" s="24"/>
       <c r="G11" s="23"/>
       <c r="H11" s="32"/>
@@ -2038,17 +2055,19 @@
       <c r="AB11" s="24"/>
       <c r="AC11" s="23"/>
       <c r="AD11" s="24"/>
-      <c r="AE11" s="57"/>
+      <c r="AE11" s="58"/>
     </row>
     <row r="12" ht="14.1" customHeight="1" spans="1:49">
       <c r="A12" s="31"/>
       <c r="B12" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="32"/>
+      <c r="F12" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="32"/>
       <c r="H12" s="24"/>
       <c r="I12" s="23"/>
@@ -2066,14 +2085,14 @@
       <c r="U12" s="23"/>
       <c r="V12" s="24"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="52"/>
+      <c r="X12" s="53"/>
       <c r="Y12" s="28"/>
-      <c r="Z12" s="52"/>
+      <c r="Z12" s="53"/>
       <c r="AA12" s="28"/>
-      <c r="AB12" s="52"/>
+      <c r="AB12" s="53"/>
       <c r="AC12" s="28"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="58"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="59"/>
       <c r="AF12"/>
       <c r="AG12"/>
       <c r="AH12"/>
@@ -2092,12 +2111,12 @@
       <c r="AU12"/>
       <c r="AV12"/>
       <c r="AW12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="16.5" spans="1:16378">
       <c r="A13" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="23"/>
@@ -2116,9 +2135,9 @@
       <c r="Q13" s="30"/>
       <c r="R13" s="29"/>
       <c r="S13" s="30"/>
-      <c r="T13" s="53"/>
+      <c r="T13" s="54"/>
       <c r="U13" s="23"/>
-      <c r="V13" s="53"/>
+      <c r="V13" s="54"/>
       <c r="W13" s="30"/>
       <c r="X13" s="29"/>
       <c r="Y13" s="30"/>
@@ -2127,7 +2146,7 @@
       <c r="AB13" s="29"/>
       <c r="AC13" s="30"/>
       <c r="AD13" s="29"/>
-      <c r="AE13" s="58"/>
+      <c r="AE13" s="59"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -18478,15 +18497,15 @@
     </row>
     <row r="14" ht="16.5" spans="1:31">
       <c r="A14" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
@@ -18511,12 +18530,12 @@
       <c r="AB14" s="24"/>
       <c r="AC14" s="23"/>
       <c r="AD14" s="24"/>
-      <c r="AE14" s="58"/>
+      <c r="AE14" s="59"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:31">
       <c r="A15" s="31"/>
       <c r="B15" s="26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
@@ -18568,9 +18587,9 @@
       <c r="Q16" s="30"/>
       <c r="R16" s="29"/>
       <c r="S16" s="30"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
       <c r="W16" s="30"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="30"/>
@@ -18587,11 +18606,11 @@
       <c r="XFC16"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" customHeight="1" spans="1:16383">
-      <c r="A17" s="35" t="s">
-        <v>18</v>
+      <c r="A17" s="36" t="s">
+        <v>20</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>19</v>
+      <c r="B17" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="32"/>
@@ -18600,7 +18619,7 @@
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
-      <c r="J17" s="43"/>
+      <c r="J17" s="44"/>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
@@ -18621,7 +18640,7 @@
       <c r="AB17" s="32"/>
       <c r="AC17" s="23"/>
       <c r="AD17" s="24"/>
-      <c r="AE17" s="58"/>
+      <c r="AE17" s="59"/>
       <c r="XEY17"/>
       <c r="XEZ17"/>
       <c r="XFA17"/>
@@ -18629,9 +18648,9 @@
       <c r="XFC17"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" customHeight="1" spans="1:16383">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36" t="s">
-        <v>20</v>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="32"/>
@@ -18661,7 +18680,7 @@
       <c r="AB18" s="32"/>
       <c r="AC18" s="23"/>
       <c r="AD18" s="24"/>
-      <c r="AE18" s="58"/>
+      <c r="AE18" s="59"/>
       <c r="XEY18"/>
       <c r="XEZ18"/>
       <c r="XFA18"/>
@@ -18669,9 +18688,9 @@
       <c r="XFC18"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="15" customHeight="1" spans="1:16383">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36" t="s">
-        <v>21</v>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="32"/>
@@ -18701,7 +18720,7 @@
       <c r="AB19" s="32"/>
       <c r="AC19" s="23"/>
       <c r="AD19" s="24"/>
-      <c r="AE19" s="58"/>
+      <c r="AE19" s="59"/>
       <c r="XEY19"/>
       <c r="XEZ19"/>
       <c r="XFA19"/>
@@ -18709,8 +18728,8 @@
       <c r="XFC19"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:31">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
       <c r="E20" s="23"/>
@@ -18739,14 +18758,14 @@
       <c r="AB20" s="29"/>
       <c r="AC20" s="23"/>
       <c r="AD20" s="24"/>
-      <c r="AE20" s="58"/>
+      <c r="AE20" s="59"/>
     </row>
     <row r="21" customHeight="1" spans="1:31">
       <c r="A21" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="32"/>
@@ -18776,12 +18795,12 @@
       <c r="AB21" s="32"/>
       <c r="AC21" s="30"/>
       <c r="AD21" s="29"/>
-      <c r="AE21" s="58"/>
+      <c r="AE21" s="59"/>
     </row>
     <row r="22" customHeight="1" spans="1:31">
       <c r="A22" s="31"/>
       <c r="B22" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="32"/>
@@ -18811,12 +18830,12 @@
       <c r="AB22" s="32"/>
       <c r="AC22" s="30"/>
       <c r="AD22" s="29"/>
-      <c r="AE22" s="58"/>
+      <c r="AE22" s="59"/>
     </row>
     <row r="23" customHeight="1" spans="1:31">
       <c r="A23" s="31"/>
       <c r="B23" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="32"/>
@@ -18846,12 +18865,12 @@
       <c r="AB23" s="32"/>
       <c r="AC23" s="30"/>
       <c r="AD23" s="29"/>
-      <c r="AE23" s="58"/>
+      <c r="AE23" s="59"/>
     </row>
     <row r="24" customHeight="1" spans="1:31">
       <c r="A24" s="31"/>
       <c r="B24" s="26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="32"/>
@@ -18881,12 +18900,12 @@
       <c r="AB24" s="32"/>
       <c r="AC24" s="30"/>
       <c r="AD24" s="29"/>
-      <c r="AE24" s="58"/>
+      <c r="AE24" s="59"/>
     </row>
     <row r="25" customHeight="1" spans="1:31">
       <c r="A25" s="31"/>
       <c r="B25" s="26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="32"/>
@@ -18916,12 +18935,12 @@
       <c r="AB25" s="32"/>
       <c r="AC25" s="30"/>
       <c r="AD25" s="29"/>
-      <c r="AE25" s="58"/>
+      <c r="AE25" s="59"/>
     </row>
     <row r="26" customHeight="1" spans="1:31">
       <c r="A26" s="33"/>
       <c r="B26" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="32"/>
@@ -18951,14 +18970,14 @@
       <c r="AB26" s="32"/>
       <c r="AC26" s="23"/>
       <c r="AD26" s="24"/>
-      <c r="AE26" s="58"/>
+      <c r="AE26" s="59"/>
     </row>
     <row r="27" customHeight="1" spans="1:31">
       <c r="A27" s="26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="32"/>
@@ -18988,11 +19007,11 @@
       <c r="AB27" s="32"/>
       <c r="AC27" s="23"/>
       <c r="AD27" s="24"/>
-      <c r="AE27" s="58"/>
+      <c r="AE27" s="59"/>
     </row>
     <row r="28" customHeight="1" spans="1:31">
       <c r="A28" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="23"/>
@@ -19023,7 +19042,7 @@
       <c r="AB28" s="24"/>
       <c r="AC28" s="23"/>
       <c r="AD28" s="24"/>
-      <c r="AE28" s="58"/>
+      <c r="AE28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
